--- a/topmeperp_v1/UploadFile/Inquiry_form_template.xlsx
+++ b/topmeperp_v1/UploadFile/Inquiry_form_template.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS.NET\topmeperp_v1\topmeperp_v1\UploadFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Topmep_Web\topmeperp_v1\topmeperp_v1_master\topmeperp_v1\UploadFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6890"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6888"/>
   </bookViews>
   <sheets>
     <sheet name="詢價單" sheetId="1" r:id="rId1"/>
@@ -312,7 +312,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>項次</t>
   </si>
@@ -480,6 +480,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -490,7 +491,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1331,97 +1331,112 @@
   <dimension ref="A1:J499"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.25" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" style="1"/>
-    <col min="6" max="6" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.6640625" style="1"/>
-    <col min="10" max="10" width="8.6640625" style="4"/>
-    <col min="19" max="19" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.19921875" customWidth="1"/>
+    <col min="5" max="5" width="8.69921875" style="1"/>
+    <col min="6" max="6" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.69921875" style="1"/>
+    <col min="10" max="10" width="8.69921875" style="4"/>
+    <col min="19" max="19" width="12.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:10" ht="22.2" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-    </row>
-    <row r="2" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="9" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="1:10" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.4">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="6" t="s">
         <v>21</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.4">
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.4">
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.4">
+      <c r="G5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="17" x14ac:dyDescent="0.4">
+      <c r="G6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1429,7 +1444,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
@@ -1451,11 +1466,11 @@
       <c r="G9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1464,7 +1479,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -1479,7 +1494,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1488,7 +1503,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
@@ -1503,7 +1518,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1512,7 +1527,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1521,7 +1536,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1530,7 +1545,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1539,7 +1554,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1548,7 +1563,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1557,7 +1572,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1566,7 +1581,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1575,7 +1590,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1584,7 +1599,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1593,7 +1608,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1602,7 +1617,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1611,7 +1626,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1620,7 +1635,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1629,7 +1644,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1638,7 +1653,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1647,7 +1662,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1656,7 +1671,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1665,7 +1680,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1674,7 +1689,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1683,7 +1698,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1692,7 +1707,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1701,7 +1716,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1710,7 +1725,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1719,7 +1734,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1728,7 +1743,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1737,7 +1752,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1746,7 +1761,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1755,7 +1770,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1764,7 +1779,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1773,7 +1788,7 @@
       <c r="F43" s="3"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1782,7 +1797,7 @@
       <c r="F44" s="3"/>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1791,7 +1806,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1800,7 +1815,7 @@
       <c r="F46" s="3"/>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1809,7 +1824,7 @@
       <c r="F47" s="3"/>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1818,7 +1833,7 @@
       <c r="F48" s="3"/>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1827,7 +1842,7 @@
       <c r="F49" s="3"/>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1836,7 +1851,7 @@
       <c r="F50" s="3"/>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1845,7 +1860,7 @@
       <c r="F51" s="3"/>
       <c r="G51" s="2"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1854,7 +1869,7 @@
       <c r="F52" s="3"/>
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1863,7 +1878,7 @@
       <c r="F53" s="3"/>
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1872,7 +1887,7 @@
       <c r="F54" s="3"/>
       <c r="G54" s="2"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1881,7 +1896,7 @@
       <c r="F55" s="3"/>
       <c r="G55" s="2"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1890,7 +1905,7 @@
       <c r="F56" s="3"/>
       <c r="G56" s="2"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1899,7 +1914,7 @@
       <c r="F57" s="3"/>
       <c r="G57" s="2"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -1908,7 +1923,7 @@
       <c r="F58" s="3"/>
       <c r="G58" s="2"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1917,7 +1932,7 @@
       <c r="F59" s="3"/>
       <c r="G59" s="2"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1926,7 +1941,7 @@
       <c r="F60" s="3"/>
       <c r="G60" s="2"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1935,7 +1950,7 @@
       <c r="F61" s="3"/>
       <c r="G61" s="2"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1944,7 +1959,7 @@
       <c r="F62" s="3"/>
       <c r="G62" s="2"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1953,7 +1968,7 @@
       <c r="F63" s="3"/>
       <c r="G63" s="2"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -1962,7 +1977,7 @@
       <c r="F64" s="3"/>
       <c r="G64" s="2"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -1971,7 +1986,7 @@
       <c r="F65" s="3"/>
       <c r="G65" s="2"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1980,7 +1995,7 @@
       <c r="F66" s="3"/>
       <c r="G66" s="2"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -1989,7 +2004,7 @@
       <c r="F67" s="3"/>
       <c r="G67" s="2"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -1998,7 +2013,7 @@
       <c r="F68" s="3"/>
       <c r="G68" s="2"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -2007,7 +2022,7 @@
       <c r="F69" s="3"/>
       <c r="G69" s="2"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -2016,7 +2031,7 @@
       <c r="F70" s="3"/>
       <c r="G70" s="2"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -2025,7 +2040,7 @@
       <c r="F71" s="3"/>
       <c r="G71" s="2"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -2034,7 +2049,7 @@
       <c r="F72" s="3"/>
       <c r="G72" s="2"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -2043,7 +2058,7 @@
       <c r="F73" s="3"/>
       <c r="G73" s="2"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -2052,7 +2067,7 @@
       <c r="F74" s="3"/>
       <c r="G74" s="2"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -2061,7 +2076,7 @@
       <c r="F75" s="3"/>
       <c r="G75" s="2"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -2070,7 +2085,7 @@
       <c r="F76" s="3"/>
       <c r="G76" s="2"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -2079,7 +2094,7 @@
       <c r="F77" s="3"/>
       <c r="G77" s="2"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -2088,7 +2103,7 @@
       <c r="F78" s="3"/>
       <c r="G78" s="2"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -2097,7 +2112,7 @@
       <c r="F79" s="3"/>
       <c r="G79" s="2"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -2106,7 +2121,7 @@
       <c r="F80" s="3"/>
       <c r="G80" s="2"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -2115,7 +2130,7 @@
       <c r="F81" s="3"/>
       <c r="G81" s="2"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -2124,7 +2139,7 @@
       <c r="F82" s="3"/>
       <c r="G82" s="2"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -2133,7 +2148,7 @@
       <c r="F83" s="3"/>
       <c r="G83" s="2"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -2142,7 +2157,7 @@
       <c r="F84" s="3"/>
       <c r="G84" s="2"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -2151,7 +2166,7 @@
       <c r="F85" s="3"/>
       <c r="G85" s="2"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -2160,7 +2175,7 @@
       <c r="F86" s="3"/>
       <c r="G86" s="2"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -2169,7 +2184,7 @@
       <c r="F87" s="3"/>
       <c r="G87" s="2"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -2178,7 +2193,7 @@
       <c r="F88" s="3"/>
       <c r="G88" s="2"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -2187,7 +2202,7 @@
       <c r="F89" s="3"/>
       <c r="G89" s="2"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -2196,7 +2211,7 @@
       <c r="F90" s="3"/>
       <c r="G90" s="2"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -2205,7 +2220,7 @@
       <c r="F91" s="3"/>
       <c r="G91" s="2"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -2214,7 +2229,7 @@
       <c r="F92" s="3"/>
       <c r="G92" s="2"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -2223,7 +2238,7 @@
       <c r="F93" s="3"/>
       <c r="G93" s="2"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -2232,7 +2247,7 @@
       <c r="F94" s="3"/>
       <c r="G94" s="2"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -2241,7 +2256,7 @@
       <c r="F95" s="3"/>
       <c r="G95" s="2"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -2250,7 +2265,7 @@
       <c r="F96" s="3"/>
       <c r="G96" s="2"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -2259,7 +2274,7 @@
       <c r="F97" s="3"/>
       <c r="G97" s="2"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -2268,7 +2283,7 @@
       <c r="F98" s="3"/>
       <c r="G98" s="2"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -2277,7 +2292,7 @@
       <c r="F99" s="3"/>
       <c r="G99" s="2"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -2286,7 +2301,7 @@
       <c r="F100" s="3"/>
       <c r="G100" s="2"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -2295,7 +2310,7 @@
       <c r="F101" s="3"/>
       <c r="G101" s="2"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -2304,7 +2319,7 @@
       <c r="F102" s="3"/>
       <c r="G102" s="2"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -2313,7 +2328,7 @@
       <c r="F103" s="3"/>
       <c r="G103" s="2"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -2322,7 +2337,7 @@
       <c r="F104" s="3"/>
       <c r="G104" s="2"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -2331,7 +2346,7 @@
       <c r="F105" s="3"/>
       <c r="G105" s="2"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -2340,7 +2355,7 @@
       <c r="F106" s="3"/>
       <c r="G106" s="2"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -2349,7 +2364,7 @@
       <c r="F107" s="3"/>
       <c r="G107" s="2"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -2358,7 +2373,7 @@
       <c r="F108" s="3"/>
       <c r="G108" s="2"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -2367,7 +2382,7 @@
       <c r="F109" s="3"/>
       <c r="G109" s="2"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -2376,7 +2391,7 @@
       <c r="F110" s="3"/>
       <c r="G110" s="2"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -2385,7 +2400,7 @@
       <c r="F111" s="3"/>
       <c r="G111" s="2"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -2394,7 +2409,7 @@
       <c r="F112" s="3"/>
       <c r="G112" s="2"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -2403,7 +2418,7 @@
       <c r="F113" s="3"/>
       <c r="G113" s="2"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -2412,7 +2427,7 @@
       <c r="F114" s="3"/>
       <c r="G114" s="2"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -2421,7 +2436,7 @@
       <c r="F115" s="3"/>
       <c r="G115" s="2"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -2430,7 +2445,7 @@
       <c r="F116" s="3"/>
       <c r="G116" s="2"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -2439,7 +2454,7 @@
       <c r="F117" s="3"/>
       <c r="G117" s="2"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -2448,7 +2463,7 @@
       <c r="F118" s="3"/>
       <c r="G118" s="2"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -2457,7 +2472,7 @@
       <c r="F119" s="3"/>
       <c r="G119" s="2"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -2466,7 +2481,7 @@
       <c r="F120" s="3"/>
       <c r="G120" s="2"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -2475,7 +2490,7 @@
       <c r="F121" s="3"/>
       <c r="G121" s="2"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -2484,7 +2499,7 @@
       <c r="F122" s="3"/>
       <c r="G122" s="2"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -2493,7 +2508,7 @@
       <c r="F123" s="3"/>
       <c r="G123" s="2"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -2502,7 +2517,7 @@
       <c r="F124" s="3"/>
       <c r="G124" s="2"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -2511,7 +2526,7 @@
       <c r="F125" s="3"/>
       <c r="G125" s="2"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -2520,7 +2535,7 @@
       <c r="F126" s="3"/>
       <c r="G126" s="2"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -2529,7 +2544,7 @@
       <c r="F127" s="3"/>
       <c r="G127" s="2"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -2538,7 +2553,7 @@
       <c r="F128" s="3"/>
       <c r="G128" s="2"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -2547,7 +2562,7 @@
       <c r="F129" s="3"/>
       <c r="G129" s="2"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -2556,7 +2571,7 @@
       <c r="F130" s="3"/>
       <c r="G130" s="2"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -2565,7 +2580,7 @@
       <c r="F131" s="3"/>
       <c r="G131" s="2"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -2574,7 +2589,7 @@
       <c r="F132" s="3"/>
       <c r="G132" s="2"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -2583,7 +2598,7 @@
       <c r="F133" s="3"/>
       <c r="G133" s="2"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -2592,7 +2607,7 @@
       <c r="F134" s="3"/>
       <c r="G134" s="2"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -2601,7 +2616,7 @@
       <c r="F135" s="3"/>
       <c r="G135" s="2"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -2610,7 +2625,7 @@
       <c r="F136" s="3"/>
       <c r="G136" s="2"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -2619,7 +2634,7 @@
       <c r="F137" s="3"/>
       <c r="G137" s="2"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -2628,7 +2643,7 @@
       <c r="F138" s="3"/>
       <c r="G138" s="2"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -2637,7 +2652,7 @@
       <c r="F139" s="3"/>
       <c r="G139" s="2"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -2646,7 +2661,7 @@
       <c r="F140" s="3"/>
       <c r="G140" s="2"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -2655,7 +2670,7 @@
       <c r="F141" s="3"/>
       <c r="G141" s="2"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -2664,7 +2679,7 @@
       <c r="F142" s="3"/>
       <c r="G142" s="2"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -2673,7 +2688,7 @@
       <c r="F143" s="3"/>
       <c r="G143" s="2"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -2682,7 +2697,7 @@
       <c r="F144" s="3"/>
       <c r="G144" s="2"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -2691,7 +2706,7 @@
       <c r="F145" s="3"/>
       <c r="G145" s="2"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -2700,7 +2715,7 @@
       <c r="F146" s="3"/>
       <c r="G146" s="2"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -2709,7 +2724,7 @@
       <c r="F147" s="3"/>
       <c r="G147" s="2"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -2718,7 +2733,7 @@
       <c r="F148" s="3"/>
       <c r="G148" s="2"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -2727,7 +2742,7 @@
       <c r="F149" s="3"/>
       <c r="G149" s="2"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -2736,7 +2751,7 @@
       <c r="F150" s="3"/>
       <c r="G150" s="2"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -2745,7 +2760,7 @@
       <c r="F151" s="3"/>
       <c r="G151" s="2"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -2754,7 +2769,7 @@
       <c r="F152" s="3"/>
       <c r="G152" s="2"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -2763,7 +2778,7 @@
       <c r="F153" s="3"/>
       <c r="G153" s="2"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -2772,7 +2787,7 @@
       <c r="F154" s="3"/>
       <c r="G154" s="2"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -2781,7 +2796,7 @@
       <c r="F155" s="3"/>
       <c r="G155" s="2"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -2790,7 +2805,7 @@
       <c r="F156" s="3"/>
       <c r="G156" s="2"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -2799,7 +2814,7 @@
       <c r="F157" s="3"/>
       <c r="G157" s="2"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -2808,7 +2823,7 @@
       <c r="F158" s="3"/>
       <c r="G158" s="2"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -2817,7 +2832,7 @@
       <c r="F159" s="3"/>
       <c r="G159" s="2"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -2826,7 +2841,7 @@
       <c r="F160" s="3"/>
       <c r="G160" s="2"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -2835,7 +2850,7 @@
       <c r="F161" s="3"/>
       <c r="G161" s="2"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -2844,7 +2859,7 @@
       <c r="F162" s="3"/>
       <c r="G162" s="2"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -2853,7 +2868,7 @@
       <c r="F163" s="3"/>
       <c r="G163" s="2"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -2862,7 +2877,7 @@
       <c r="F164" s="3"/>
       <c r="G164" s="2"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -2871,7 +2886,7 @@
       <c r="F165" s="3"/>
       <c r="G165" s="2"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -2880,7 +2895,7 @@
       <c r="F166" s="3"/>
       <c r="G166" s="2"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -2889,7 +2904,7 @@
       <c r="F167" s="3"/>
       <c r="G167" s="2"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -2898,7 +2913,7 @@
       <c r="F168" s="3"/>
       <c r="G168" s="2"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -2907,7 +2922,7 @@
       <c r="F169" s="3"/>
       <c r="G169" s="2"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -2916,7 +2931,7 @@
       <c r="F170" s="3"/>
       <c r="G170" s="2"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -2925,7 +2940,7 @@
       <c r="F171" s="3"/>
       <c r="G171" s="2"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -2934,7 +2949,7 @@
       <c r="F172" s="3"/>
       <c r="G172" s="2"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -2943,7 +2958,7 @@
       <c r="F173" s="3"/>
       <c r="G173" s="2"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -2952,7 +2967,7 @@
       <c r="F174" s="3"/>
       <c r="G174" s="2"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -2961,7 +2976,7 @@
       <c r="F175" s="3"/>
       <c r="G175" s="2"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -2970,7 +2985,7 @@
       <c r="F176" s="3"/>
       <c r="G176" s="2"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -2979,7 +2994,7 @@
       <c r="F177" s="3"/>
       <c r="G177" s="2"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -2988,7 +3003,7 @@
       <c r="F178" s="3"/>
       <c r="G178" s="2"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -2997,7 +3012,7 @@
       <c r="F179" s="3"/>
       <c r="G179" s="2"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -3006,7 +3021,7 @@
       <c r="F180" s="3"/>
       <c r="G180" s="2"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -3015,7 +3030,7 @@
       <c r="F181" s="3"/>
       <c r="G181" s="2"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -3024,7 +3039,7 @@
       <c r="F182" s="3"/>
       <c r="G182" s="2"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -3033,7 +3048,7 @@
       <c r="F183" s="3"/>
       <c r="G183" s="2"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -3042,7 +3057,7 @@
       <c r="F184" s="3"/>
       <c r="G184" s="2"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -3051,7 +3066,7 @@
       <c r="F185" s="3"/>
       <c r="G185" s="2"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -3060,7 +3075,7 @@
       <c r="F186" s="3"/>
       <c r="G186" s="2"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -3069,7 +3084,7 @@
       <c r="F187" s="3"/>
       <c r="G187" s="2"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -3078,7 +3093,7 @@
       <c r="F188" s="3"/>
       <c r="G188" s="2"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -3087,7 +3102,7 @@
       <c r="F189" s="3"/>
       <c r="G189" s="2"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -3096,7 +3111,7 @@
       <c r="F190" s="3"/>
       <c r="G190" s="2"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -3105,7 +3120,7 @@
       <c r="F191" s="3"/>
       <c r="G191" s="2"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -3114,7 +3129,7 @@
       <c r="F192" s="3"/>
       <c r="G192" s="2"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -3123,7 +3138,7 @@
       <c r="F193" s="3"/>
       <c r="G193" s="2"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -3132,7 +3147,7 @@
       <c r="F194" s="3"/>
       <c r="G194" s="2"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -3141,7 +3156,7 @@
       <c r="F195" s="3"/>
       <c r="G195" s="2"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -3150,7 +3165,7 @@
       <c r="F196" s="3"/>
       <c r="G196" s="2"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -3159,7 +3174,7 @@
       <c r="F197" s="3"/>
       <c r="G197" s="2"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -3168,7 +3183,7 @@
       <c r="F198" s="3"/>
       <c r="G198" s="2"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -3177,7 +3192,7 @@
       <c r="F199" s="3"/>
       <c r="G199" s="2"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -3186,7 +3201,7 @@
       <c r="F200" s="3"/>
       <c r="G200" s="2"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -3195,7 +3210,7 @@
       <c r="F201" s="3"/>
       <c r="G201" s="2"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -3204,7 +3219,7 @@
       <c r="F202" s="3"/>
       <c r="G202" s="2"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -3213,7 +3228,7 @@
       <c r="F203" s="3"/>
       <c r="G203" s="2"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -3222,7 +3237,7 @@
       <c r="F204" s="3"/>
       <c r="G204" s="2"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -3231,7 +3246,7 @@
       <c r="F205" s="3"/>
       <c r="G205" s="2"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -3240,7 +3255,7 @@
       <c r="F206" s="3"/>
       <c r="G206" s="2"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -3249,7 +3264,7 @@
       <c r="F207" s="3"/>
       <c r="G207" s="2"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -3258,7 +3273,7 @@
       <c r="F208" s="3"/>
       <c r="G208" s="2"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -3267,7 +3282,7 @@
       <c r="F209" s="3"/>
       <c r="G209" s="2"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -3276,7 +3291,7 @@
       <c r="F210" s="3"/>
       <c r="G210" s="2"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -3285,7 +3300,7 @@
       <c r="F211" s="3"/>
       <c r="G211" s="2"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -3294,7 +3309,7 @@
       <c r="F212" s="3"/>
       <c r="G212" s="2"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -3303,7 +3318,7 @@
       <c r="F213" s="3"/>
       <c r="G213" s="2"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -3312,7 +3327,7 @@
       <c r="F214" s="3"/>
       <c r="G214" s="2"/>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -3321,7 +3336,7 @@
       <c r="F215" s="3"/>
       <c r="G215" s="2"/>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -3330,7 +3345,7 @@
       <c r="F216" s="3"/>
       <c r="G216" s="2"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -3339,7 +3354,7 @@
       <c r="F217" s="3"/>
       <c r="G217" s="2"/>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -3348,7 +3363,7 @@
       <c r="F218" s="3"/>
       <c r="G218" s="2"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -3357,7 +3372,7 @@
       <c r="F219" s="3"/>
       <c r="G219" s="2"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -3366,7 +3381,7 @@
       <c r="F220" s="3"/>
       <c r="G220" s="2"/>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -3375,7 +3390,7 @@
       <c r="F221" s="3"/>
       <c r="G221" s="2"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -3384,7 +3399,7 @@
       <c r="F222" s="3"/>
       <c r="G222" s="2"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -3393,7 +3408,7 @@
       <c r="F223" s="3"/>
       <c r="G223" s="2"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -3402,7 +3417,7 @@
       <c r="F224" s="3"/>
       <c r="G224" s="2"/>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -3411,7 +3426,7 @@
       <c r="F225" s="3"/>
       <c r="G225" s="2"/>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -3420,7 +3435,7 @@
       <c r="F226" s="3"/>
       <c r="G226" s="2"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -3429,7 +3444,7 @@
       <c r="F227" s="3"/>
       <c r="G227" s="2"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -3438,7 +3453,7 @@
       <c r="F228" s="3"/>
       <c r="G228" s="2"/>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -3447,7 +3462,7 @@
       <c r="F229" s="3"/>
       <c r="G229" s="2"/>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -3456,7 +3471,7 @@
       <c r="F230" s="3"/>
       <c r="G230" s="2"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -3465,7 +3480,7 @@
       <c r="F231" s="3"/>
       <c r="G231" s="2"/>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -3474,7 +3489,7 @@
       <c r="F232" s="3"/>
       <c r="G232" s="2"/>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -3483,7 +3498,7 @@
       <c r="F233" s="3"/>
       <c r="G233" s="2"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -3492,7 +3507,7 @@
       <c r="F234" s="3"/>
       <c r="G234" s="2"/>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -3501,7 +3516,7 @@
       <c r="F235" s="3"/>
       <c r="G235" s="2"/>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -3510,7 +3525,7 @@
       <c r="F236" s="3"/>
       <c r="G236" s="2"/>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -3519,7 +3534,7 @@
       <c r="F237" s="3"/>
       <c r="G237" s="2"/>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -3528,7 +3543,7 @@
       <c r="F238" s="3"/>
       <c r="G238" s="2"/>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -3537,7 +3552,7 @@
       <c r="F239" s="3"/>
       <c r="G239" s="2"/>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -3546,7 +3561,7 @@
       <c r="F240" s="3"/>
       <c r="G240" s="2"/>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -3555,7 +3570,7 @@
       <c r="F241" s="3"/>
       <c r="G241" s="2"/>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -3564,7 +3579,7 @@
       <c r="F242" s="3"/>
       <c r="G242" s="2"/>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -3573,7 +3588,7 @@
       <c r="F243" s="3"/>
       <c r="G243" s="2"/>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -3582,7 +3597,7 @@
       <c r="F244" s="3"/>
       <c r="G244" s="2"/>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -3591,7 +3606,7 @@
       <c r="F245" s="3"/>
       <c r="G245" s="2"/>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -3600,7 +3615,7 @@
       <c r="F246" s="3"/>
       <c r="G246" s="2"/>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -3609,7 +3624,7 @@
       <c r="F247" s="3"/>
       <c r="G247" s="2"/>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -3618,7 +3633,7 @@
       <c r="F248" s="3"/>
       <c r="G248" s="2"/>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -3627,7 +3642,7 @@
       <c r="F249" s="3"/>
       <c r="G249" s="2"/>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -3636,7 +3651,7 @@
       <c r="F250" s="3"/>
       <c r="G250" s="2"/>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -3645,7 +3660,7 @@
       <c r="F251" s="3"/>
       <c r="G251" s="2"/>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -3654,7 +3669,7 @@
       <c r="F252" s="3"/>
       <c r="G252" s="2"/>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -3663,7 +3678,7 @@
       <c r="F253" s="3"/>
       <c r="G253" s="2"/>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -3672,7 +3687,7 @@
       <c r="F254" s="3"/>
       <c r="G254" s="2"/>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -3681,7 +3696,7 @@
       <c r="F255" s="3"/>
       <c r="G255" s="2"/>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -3690,7 +3705,7 @@
       <c r="F256" s="3"/>
       <c r="G256" s="2"/>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -3699,7 +3714,7 @@
       <c r="F257" s="3"/>
       <c r="G257" s="2"/>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -3708,7 +3723,7 @@
       <c r="F258" s="3"/>
       <c r="G258" s="2"/>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -3717,7 +3732,7 @@
       <c r="F259" s="3"/>
       <c r="G259" s="2"/>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -3726,7 +3741,7 @@
       <c r="F260" s="3"/>
       <c r="G260" s="2"/>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -3735,7 +3750,7 @@
       <c r="F261" s="3"/>
       <c r="G261" s="2"/>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -3744,7 +3759,7 @@
       <c r="F262" s="3"/>
       <c r="G262" s="2"/>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -3753,7 +3768,7 @@
       <c r="F263" s="3"/>
       <c r="G263" s="2"/>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -3762,7 +3777,7 @@
       <c r="F264" s="3"/>
       <c r="G264" s="2"/>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -3771,7 +3786,7 @@
       <c r="F265" s="3"/>
       <c r="G265" s="2"/>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -3780,7 +3795,7 @@
       <c r="F266" s="3"/>
       <c r="G266" s="2"/>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -3789,7 +3804,7 @@
       <c r="F267" s="3"/>
       <c r="G267" s="2"/>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -3798,7 +3813,7 @@
       <c r="F268" s="3"/>
       <c r="G268" s="2"/>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -3807,7 +3822,7 @@
       <c r="F269" s="3"/>
       <c r="G269" s="2"/>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -3816,7 +3831,7 @@
       <c r="F270" s="3"/>
       <c r="G270" s="2"/>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -3825,7 +3840,7 @@
       <c r="F271" s="3"/>
       <c r="G271" s="2"/>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -3834,7 +3849,7 @@
       <c r="F272" s="3"/>
       <c r="G272" s="2"/>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -3843,7 +3858,7 @@
       <c r="F273" s="3"/>
       <c r="G273" s="2"/>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -3852,7 +3867,7 @@
       <c r="F274" s="3"/>
       <c r="G274" s="2"/>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -3861,7 +3876,7 @@
       <c r="F275" s="3"/>
       <c r="G275" s="2"/>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -3870,7 +3885,7 @@
       <c r="F276" s="3"/>
       <c r="G276" s="2"/>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -3879,7 +3894,7 @@
       <c r="F277" s="3"/>
       <c r="G277" s="2"/>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -3888,7 +3903,7 @@
       <c r="F278" s="3"/>
       <c r="G278" s="2"/>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -3897,7 +3912,7 @@
       <c r="F279" s="3"/>
       <c r="G279" s="2"/>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -3906,7 +3921,7 @@
       <c r="F280" s="3"/>
       <c r="G280" s="2"/>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -3915,7 +3930,7 @@
       <c r="F281" s="3"/>
       <c r="G281" s="2"/>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -3924,7 +3939,7 @@
       <c r="F282" s="3"/>
       <c r="G282" s="2"/>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -3933,7 +3948,7 @@
       <c r="F283" s="3"/>
       <c r="G283" s="2"/>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -3942,7 +3957,7 @@
       <c r="F284" s="3"/>
       <c r="G284" s="2"/>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -3951,7 +3966,7 @@
       <c r="F285" s="3"/>
       <c r="G285" s="2"/>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -3960,7 +3975,7 @@
       <c r="F286" s="3"/>
       <c r="G286" s="2"/>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -3969,7 +3984,7 @@
       <c r="F287" s="3"/>
       <c r="G287" s="2"/>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -3978,7 +3993,7 @@
       <c r="F288" s="3"/>
       <c r="G288" s="2"/>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -3987,7 +4002,7 @@
       <c r="F289" s="3"/>
       <c r="G289" s="2"/>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -3996,7 +4011,7 @@
       <c r="F290" s="3"/>
       <c r="G290" s="2"/>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -4005,7 +4020,7 @@
       <c r="F291" s="3"/>
       <c r="G291" s="2"/>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -4014,7 +4029,7 @@
       <c r="F292" s="3"/>
       <c r="G292" s="2"/>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -4023,7 +4038,7 @@
       <c r="F293" s="3"/>
       <c r="G293" s="2"/>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -4032,7 +4047,7 @@
       <c r="F294" s="3"/>
       <c r="G294" s="2"/>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -4041,7 +4056,7 @@
       <c r="F295" s="3"/>
       <c r="G295" s="2"/>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -4050,7 +4065,7 @@
       <c r="F296" s="3"/>
       <c r="G296" s="2"/>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -4059,7 +4074,7 @@
       <c r="F297" s="3"/>
       <c r="G297" s="2"/>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -4068,7 +4083,7 @@
       <c r="F298" s="3"/>
       <c r="G298" s="2"/>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -4077,7 +4092,7 @@
       <c r="F299" s="3"/>
       <c r="G299" s="2"/>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -4086,7 +4101,7 @@
       <c r="F300" s="3"/>
       <c r="G300" s="2"/>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -4095,7 +4110,7 @@
       <c r="F301" s="3"/>
       <c r="G301" s="2"/>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -4104,7 +4119,7 @@
       <c r="F302" s="3"/>
       <c r="G302" s="2"/>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -4113,7 +4128,7 @@
       <c r="F303" s="3"/>
       <c r="G303" s="2"/>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -4122,7 +4137,7 @@
       <c r="F304" s="3"/>
       <c r="G304" s="2"/>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -4131,7 +4146,7 @@
       <c r="F305" s="3"/>
       <c r="G305" s="2"/>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -4140,7 +4155,7 @@
       <c r="F306" s="3"/>
       <c r="G306" s="2"/>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -4149,7 +4164,7 @@
       <c r="F307" s="3"/>
       <c r="G307" s="2"/>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -4158,7 +4173,7 @@
       <c r="F308" s="3"/>
       <c r="G308" s="2"/>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -4167,7 +4182,7 @@
       <c r="F309" s="3"/>
       <c r="G309" s="2"/>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -4176,7 +4191,7 @@
       <c r="F310" s="3"/>
       <c r="G310" s="2"/>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -4185,7 +4200,7 @@
       <c r="F311" s="3"/>
       <c r="G311" s="2"/>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -4194,7 +4209,7 @@
       <c r="F312" s="3"/>
       <c r="G312" s="2"/>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -4203,7 +4218,7 @@
       <c r="F313" s="3"/>
       <c r="G313" s="2"/>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -4212,7 +4227,7 @@
       <c r="F314" s="3"/>
       <c r="G314" s="2"/>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -4221,7 +4236,7 @@
       <c r="F315" s="3"/>
       <c r="G315" s="2"/>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -4230,7 +4245,7 @@
       <c r="F316" s="3"/>
       <c r="G316" s="2"/>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -4239,7 +4254,7 @@
       <c r="F317" s="3"/>
       <c r="G317" s="2"/>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -4248,7 +4263,7 @@
       <c r="F318" s="3"/>
       <c r="G318" s="2"/>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
@@ -4257,7 +4272,7 @@
       <c r="F319" s="3"/>
       <c r="G319" s="2"/>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
@@ -4266,7 +4281,7 @@
       <c r="F320" s="3"/>
       <c r="G320" s="2"/>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
@@ -4275,7 +4290,7 @@
       <c r="F321" s="3"/>
       <c r="G321" s="2"/>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -4284,7 +4299,7 @@
       <c r="F322" s="3"/>
       <c r="G322" s="2"/>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
@@ -4293,7 +4308,7 @@
       <c r="F323" s="3"/>
       <c r="G323" s="2"/>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
@@ -4302,7 +4317,7 @@
       <c r="F324" s="3"/>
       <c r="G324" s="2"/>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
@@ -4311,7 +4326,7 @@
       <c r="F325" s="3"/>
       <c r="G325" s="2"/>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
@@ -4320,7 +4335,7 @@
       <c r="F326" s="3"/>
       <c r="G326" s="2"/>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
@@ -4329,7 +4344,7 @@
       <c r="F327" s="3"/>
       <c r="G327" s="2"/>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
@@ -4338,7 +4353,7 @@
       <c r="F328" s="3"/>
       <c r="G328" s="2"/>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -4347,7 +4362,7 @@
       <c r="F329" s="3"/>
       <c r="G329" s="2"/>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
@@ -4356,7 +4371,7 @@
       <c r="F330" s="3"/>
       <c r="G330" s="2"/>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
@@ -4365,7 +4380,7 @@
       <c r="F331" s="3"/>
       <c r="G331" s="2"/>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
@@ -4374,7 +4389,7 @@
       <c r="F332" s="3"/>
       <c r="G332" s="2"/>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
@@ -4383,7 +4398,7 @@
       <c r="F333" s="3"/>
       <c r="G333" s="2"/>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
@@ -4392,7 +4407,7 @@
       <c r="F334" s="3"/>
       <c r="G334" s="2"/>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
@@ -4401,7 +4416,7 @@
       <c r="F335" s="3"/>
       <c r="G335" s="2"/>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
@@ -4410,7 +4425,7 @@
       <c r="F336" s="3"/>
       <c r="G336" s="2"/>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
@@ -4419,7 +4434,7 @@
       <c r="F337" s="3"/>
       <c r="G337" s="2"/>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
@@ -4428,7 +4443,7 @@
       <c r="F338" s="3"/>
       <c r="G338" s="2"/>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
@@ -4437,7 +4452,7 @@
       <c r="F339" s="3"/>
       <c r="G339" s="2"/>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
@@ -4446,7 +4461,7 @@
       <c r="F340" s="3"/>
       <c r="G340" s="2"/>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
@@ -4455,7 +4470,7 @@
       <c r="F341" s="3"/>
       <c r="G341" s="2"/>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
@@ -4464,7 +4479,7 @@
       <c r="F342" s="3"/>
       <c r="G342" s="2"/>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
@@ -4473,7 +4488,7 @@
       <c r="F343" s="3"/>
       <c r="G343" s="2"/>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
@@ -4482,7 +4497,7 @@
       <c r="F344" s="3"/>
       <c r="G344" s="2"/>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
@@ -4491,7 +4506,7 @@
       <c r="F345" s="3"/>
       <c r="G345" s="2"/>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
@@ -4500,7 +4515,7 @@
       <c r="F346" s="3"/>
       <c r="G346" s="2"/>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
@@ -4509,7 +4524,7 @@
       <c r="F347" s="3"/>
       <c r="G347" s="2"/>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
@@ -4518,7 +4533,7 @@
       <c r="F348" s="3"/>
       <c r="G348" s="2"/>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
@@ -4527,7 +4542,7 @@
       <c r="F349" s="3"/>
       <c r="G349" s="2"/>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
@@ -4536,7 +4551,7 @@
       <c r="F350" s="3"/>
       <c r="G350" s="2"/>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
@@ -4545,7 +4560,7 @@
       <c r="F351" s="3"/>
       <c r="G351" s="2"/>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
@@ -4554,7 +4569,7 @@
       <c r="F352" s="3"/>
       <c r="G352" s="2"/>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
@@ -4563,7 +4578,7 @@
       <c r="F353" s="3"/>
       <c r="G353" s="2"/>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
@@ -4572,7 +4587,7 @@
       <c r="F354" s="3"/>
       <c r="G354" s="2"/>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
@@ -4581,7 +4596,7 @@
       <c r="F355" s="3"/>
       <c r="G355" s="2"/>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
@@ -4590,7 +4605,7 @@
       <c r="F356" s="3"/>
       <c r="G356" s="2"/>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
@@ -4599,7 +4614,7 @@
       <c r="F357" s="3"/>
       <c r="G357" s="2"/>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
@@ -4608,7 +4623,7 @@
       <c r="F358" s="3"/>
       <c r="G358" s="2"/>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
@@ -4617,7 +4632,7 @@
       <c r="F359" s="3"/>
       <c r="G359" s="2"/>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
@@ -4626,7 +4641,7 @@
       <c r="F360" s="3"/>
       <c r="G360" s="2"/>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
@@ -4635,7 +4650,7 @@
       <c r="F361" s="3"/>
       <c r="G361" s="2"/>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
@@ -4644,7 +4659,7 @@
       <c r="F362" s="3"/>
       <c r="G362" s="2"/>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
@@ -4653,7 +4668,7 @@
       <c r="F363" s="3"/>
       <c r="G363" s="2"/>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
@@ -4662,7 +4677,7 @@
       <c r="F364" s="3"/>
       <c r="G364" s="2"/>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
@@ -4671,7 +4686,7 @@
       <c r="F365" s="3"/>
       <c r="G365" s="2"/>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
@@ -4680,7 +4695,7 @@
       <c r="F366" s="3"/>
       <c r="G366" s="2"/>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
@@ -4689,7 +4704,7 @@
       <c r="F367" s="3"/>
       <c r="G367" s="2"/>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
@@ -4698,7 +4713,7 @@
       <c r="F368" s="3"/>
       <c r="G368" s="2"/>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
@@ -4707,7 +4722,7 @@
       <c r="F369" s="3"/>
       <c r="G369" s="2"/>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
@@ -4716,7 +4731,7 @@
       <c r="F370" s="3"/>
       <c r="G370" s="2"/>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
@@ -4725,7 +4740,7 @@
       <c r="F371" s="3"/>
       <c r="G371" s="2"/>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
@@ -4734,7 +4749,7 @@
       <c r="F372" s="3"/>
       <c r="G372" s="2"/>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
@@ -4743,7 +4758,7 @@
       <c r="F373" s="3"/>
       <c r="G373" s="2"/>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
@@ -4752,7 +4767,7 @@
       <c r="F374" s="3"/>
       <c r="G374" s="2"/>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
@@ -4761,7 +4776,7 @@
       <c r="F375" s="3"/>
       <c r="G375" s="2"/>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
@@ -4770,7 +4785,7 @@
       <c r="F376" s="3"/>
       <c r="G376" s="2"/>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
@@ -4779,7 +4794,7 @@
       <c r="F377" s="3"/>
       <c r="G377" s="2"/>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
@@ -4788,7 +4803,7 @@
       <c r="F378" s="3"/>
       <c r="G378" s="2"/>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
@@ -4797,7 +4812,7 @@
       <c r="F379" s="3"/>
       <c r="G379" s="2"/>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
@@ -4806,7 +4821,7 @@
       <c r="F380" s="3"/>
       <c r="G380" s="2"/>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
@@ -4815,7 +4830,7 @@
       <c r="F381" s="3"/>
       <c r="G381" s="2"/>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
@@ -4824,7 +4839,7 @@
       <c r="F382" s="3"/>
       <c r="G382" s="2"/>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
@@ -4833,7 +4848,7 @@
       <c r="F383" s="3"/>
       <c r="G383" s="2"/>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
@@ -4842,7 +4857,7 @@
       <c r="F384" s="3"/>
       <c r="G384" s="2"/>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
@@ -4851,7 +4866,7 @@
       <c r="F385" s="3"/>
       <c r="G385" s="2"/>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
@@ -4860,7 +4875,7 @@
       <c r="F386" s="3"/>
       <c r="G386" s="2"/>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
@@ -4869,7 +4884,7 @@
       <c r="F387" s="3"/>
       <c r="G387" s="2"/>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
@@ -4878,7 +4893,7 @@
       <c r="F388" s="3"/>
       <c r="G388" s="2"/>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
@@ -4887,7 +4902,7 @@
       <c r="F389" s="3"/>
       <c r="G389" s="2"/>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
@@ -4896,7 +4911,7 @@
       <c r="F390" s="3"/>
       <c r="G390" s="2"/>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
@@ -4905,7 +4920,7 @@
       <c r="F391" s="3"/>
       <c r="G391" s="2"/>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
@@ -4914,7 +4929,7 @@
       <c r="F392" s="3"/>
       <c r="G392" s="2"/>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
@@ -4923,7 +4938,7 @@
       <c r="F393" s="3"/>
       <c r="G393" s="2"/>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
@@ -4932,7 +4947,7 @@
       <c r="F394" s="3"/>
       <c r="G394" s="2"/>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
@@ -4941,7 +4956,7 @@
       <c r="F395" s="3"/>
       <c r="G395" s="2"/>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
@@ -4950,7 +4965,7 @@
       <c r="F396" s="3"/>
       <c r="G396" s="2"/>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
@@ -4959,7 +4974,7 @@
       <c r="F397" s="3"/>
       <c r="G397" s="2"/>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
@@ -4968,7 +4983,7 @@
       <c r="F398" s="3"/>
       <c r="G398" s="2"/>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
@@ -4977,7 +4992,7 @@
       <c r="F399" s="3"/>
       <c r="G399" s="2"/>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
@@ -4986,7 +5001,7 @@
       <c r="F400" s="3"/>
       <c r="G400" s="2"/>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
@@ -4995,7 +5010,7 @@
       <c r="F401" s="3"/>
       <c r="G401" s="2"/>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
@@ -5004,7 +5019,7 @@
       <c r="F402" s="3"/>
       <c r="G402" s="2"/>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
@@ -5013,7 +5028,7 @@
       <c r="F403" s="3"/>
       <c r="G403" s="2"/>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
@@ -5022,7 +5037,7 @@
       <c r="F404" s="3"/>
       <c r="G404" s="2"/>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
@@ -5031,7 +5046,7 @@
       <c r="F405" s="3"/>
       <c r="G405" s="2"/>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
@@ -5040,7 +5055,7 @@
       <c r="F406" s="3"/>
       <c r="G406" s="2"/>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
@@ -5049,7 +5064,7 @@
       <c r="F407" s="3"/>
       <c r="G407" s="2"/>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
@@ -5058,7 +5073,7 @@
       <c r="F408" s="3"/>
       <c r="G408" s="2"/>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
@@ -5067,7 +5082,7 @@
       <c r="F409" s="3"/>
       <c r="G409" s="2"/>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
@@ -5076,7 +5091,7 @@
       <c r="F410" s="3"/>
       <c r="G410" s="2"/>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
@@ -5085,7 +5100,7 @@
       <c r="F411" s="3"/>
       <c r="G411" s="2"/>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
@@ -5094,7 +5109,7 @@
       <c r="F412" s="3"/>
       <c r="G412" s="2"/>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
@@ -5103,7 +5118,7 @@
       <c r="F413" s="3"/>
       <c r="G413" s="2"/>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
@@ -5112,7 +5127,7 @@
       <c r="F414" s="3"/>
       <c r="G414" s="2"/>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
@@ -5121,7 +5136,7 @@
       <c r="F415" s="3"/>
       <c r="G415" s="2"/>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
@@ -5130,7 +5145,7 @@
       <c r="F416" s="3"/>
       <c r="G416" s="2"/>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
@@ -5139,7 +5154,7 @@
       <c r="F417" s="3"/>
       <c r="G417" s="2"/>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
@@ -5148,7 +5163,7 @@
       <c r="F418" s="3"/>
       <c r="G418" s="2"/>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
@@ -5157,7 +5172,7 @@
       <c r="F419" s="3"/>
       <c r="G419" s="2"/>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
@@ -5166,7 +5181,7 @@
       <c r="F420" s="3"/>
       <c r="G420" s="2"/>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
@@ -5175,7 +5190,7 @@
       <c r="F421" s="3"/>
       <c r="G421" s="2"/>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
@@ -5184,7 +5199,7 @@
       <c r="F422" s="3"/>
       <c r="G422" s="2"/>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
@@ -5193,7 +5208,7 @@
       <c r="F423" s="3"/>
       <c r="G423" s="2"/>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
@@ -5202,7 +5217,7 @@
       <c r="F424" s="3"/>
       <c r="G424" s="2"/>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
@@ -5211,7 +5226,7 @@
       <c r="F425" s="3"/>
       <c r="G425" s="2"/>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -5220,7 +5235,7 @@
       <c r="F426" s="3"/>
       <c r="G426" s="2"/>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
@@ -5229,7 +5244,7 @@
       <c r="F427" s="3"/>
       <c r="G427" s="2"/>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
@@ -5238,7 +5253,7 @@
       <c r="F428" s="3"/>
       <c r="G428" s="2"/>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
@@ -5247,7 +5262,7 @@
       <c r="F429" s="3"/>
       <c r="G429" s="2"/>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
@@ -5256,7 +5271,7 @@
       <c r="F430" s="3"/>
       <c r="G430" s="2"/>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
@@ -5265,7 +5280,7 @@
       <c r="F431" s="3"/>
       <c r="G431" s="2"/>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
@@ -5274,7 +5289,7 @@
       <c r="F432" s="3"/>
       <c r="G432" s="2"/>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
@@ -5283,7 +5298,7 @@
       <c r="F433" s="3"/>
       <c r="G433" s="2"/>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
@@ -5292,7 +5307,7 @@
       <c r="F434" s="3"/>
       <c r="G434" s="2"/>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
@@ -5301,7 +5316,7 @@
       <c r="F435" s="3"/>
       <c r="G435" s="2"/>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
@@ -5310,7 +5325,7 @@
       <c r="F436" s="3"/>
       <c r="G436" s="2"/>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
@@ -5319,7 +5334,7 @@
       <c r="F437" s="3"/>
       <c r="G437" s="2"/>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
@@ -5328,7 +5343,7 @@
       <c r="F438" s="3"/>
       <c r="G438" s="2"/>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
@@ -5337,7 +5352,7 @@
       <c r="F439" s="3"/>
       <c r="G439" s="2"/>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
@@ -5346,7 +5361,7 @@
       <c r="F440" s="3"/>
       <c r="G440" s="2"/>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
@@ -5355,7 +5370,7 @@
       <c r="F441" s="3"/>
       <c r="G441" s="2"/>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
@@ -5364,7 +5379,7 @@
       <c r="F442" s="3"/>
       <c r="G442" s="2"/>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
@@ -5373,7 +5388,7 @@
       <c r="F443" s="3"/>
       <c r="G443" s="2"/>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
@@ -5382,7 +5397,7 @@
       <c r="F444" s="3"/>
       <c r="G444" s="2"/>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
@@ -5391,7 +5406,7 @@
       <c r="F445" s="3"/>
       <c r="G445" s="2"/>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
@@ -5400,7 +5415,7 @@
       <c r="F446" s="3"/>
       <c r="G446" s="2"/>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
@@ -5409,7 +5424,7 @@
       <c r="F447" s="3"/>
       <c r="G447" s="2"/>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
@@ -5418,7 +5433,7 @@
       <c r="F448" s="3"/>
       <c r="G448" s="2"/>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
@@ -5427,7 +5442,7 @@
       <c r="F449" s="3"/>
       <c r="G449" s="2"/>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
@@ -5436,7 +5451,7 @@
       <c r="F450" s="3"/>
       <c r="G450" s="2"/>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
@@ -5445,7 +5460,7 @@
       <c r="F451" s="3"/>
       <c r="G451" s="2"/>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
@@ -5454,7 +5469,7 @@
       <c r="F452" s="3"/>
       <c r="G452" s="2"/>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
@@ -5463,7 +5478,7 @@
       <c r="F453" s="3"/>
       <c r="G453" s="2"/>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
@@ -5472,7 +5487,7 @@
       <c r="F454" s="3"/>
       <c r="G454" s="2"/>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
@@ -5481,7 +5496,7 @@
       <c r="F455" s="3"/>
       <c r="G455" s="2"/>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
@@ -5490,7 +5505,7 @@
       <c r="F456" s="3"/>
       <c r="G456" s="2"/>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
@@ -5499,7 +5514,7 @@
       <c r="F457" s="3"/>
       <c r="G457" s="2"/>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
@@ -5508,7 +5523,7 @@
       <c r="F458" s="3"/>
       <c r="G458" s="2"/>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
@@ -5517,7 +5532,7 @@
       <c r="F459" s="3"/>
       <c r="G459" s="2"/>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
@@ -5526,7 +5541,7 @@
       <c r="F460" s="3"/>
       <c r="G460" s="2"/>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
@@ -5535,7 +5550,7 @@
       <c r="F461" s="3"/>
       <c r="G461" s="2"/>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
@@ -5544,7 +5559,7 @@
       <c r="F462" s="3"/>
       <c r="G462" s="2"/>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
@@ -5553,7 +5568,7 @@
       <c r="F463" s="3"/>
       <c r="G463" s="2"/>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
@@ -5562,7 +5577,7 @@
       <c r="F464" s="3"/>
       <c r="G464" s="2"/>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
@@ -5571,7 +5586,7 @@
       <c r="F465" s="3"/>
       <c r="G465" s="2"/>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
@@ -5580,7 +5595,7 @@
       <c r="F466" s="3"/>
       <c r="G466" s="2"/>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
@@ -5589,7 +5604,7 @@
       <c r="F467" s="3"/>
       <c r="G467" s="2"/>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
@@ -5598,7 +5613,7 @@
       <c r="F468" s="3"/>
       <c r="G468" s="2"/>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
@@ -5607,7 +5622,7 @@
       <c r="F469" s="3"/>
       <c r="G469" s="2"/>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
@@ -5616,7 +5631,7 @@
       <c r="F470" s="3"/>
       <c r="G470" s="2"/>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
@@ -5625,7 +5640,7 @@
       <c r="F471" s="3"/>
       <c r="G471" s="2"/>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
@@ -5634,7 +5649,7 @@
       <c r="F472" s="3"/>
       <c r="G472" s="2"/>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
@@ -5643,7 +5658,7 @@
       <c r="F473" s="3"/>
       <c r="G473" s="2"/>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
@@ -5652,7 +5667,7 @@
       <c r="F474" s="3"/>
       <c r="G474" s="2"/>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
@@ -5661,7 +5676,7 @@
       <c r="F475" s="3"/>
       <c r="G475" s="2"/>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
@@ -5670,7 +5685,7 @@
       <c r="F476" s="3"/>
       <c r="G476" s="2"/>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
@@ -5679,7 +5694,7 @@
       <c r="F477" s="3"/>
       <c r="G477" s="2"/>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
@@ -5688,7 +5703,7 @@
       <c r="F478" s="3"/>
       <c r="G478" s="2"/>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
@@ -5697,7 +5712,7 @@
       <c r="F479" s="3"/>
       <c r="G479" s="2"/>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
@@ -5706,7 +5721,7 @@
       <c r="F480" s="3"/>
       <c r="G480" s="2"/>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
@@ -5715,7 +5730,7 @@
       <c r="F481" s="3"/>
       <c r="G481" s="2"/>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
@@ -5724,7 +5739,7 @@
       <c r="F482" s="3"/>
       <c r="G482" s="2"/>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
@@ -5733,7 +5748,7 @@
       <c r="F483" s="3"/>
       <c r="G483" s="2"/>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
@@ -5742,7 +5757,7 @@
       <c r="F484" s="3"/>
       <c r="G484" s="2"/>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
@@ -5751,7 +5766,7 @@
       <c r="F485" s="3"/>
       <c r="G485" s="2"/>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
@@ -5760,7 +5775,7 @@
       <c r="F486" s="3"/>
       <c r="G486" s="2"/>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
@@ -5769,7 +5784,7 @@
       <c r="F487" s="3"/>
       <c r="G487" s="2"/>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
@@ -5778,7 +5793,7 @@
       <c r="F488" s="3"/>
       <c r="G488" s="2"/>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
@@ -5787,7 +5802,7 @@
       <c r="F489" s="3"/>
       <c r="G489" s="2"/>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
@@ -5796,7 +5811,7 @@
       <c r="F490" s="3"/>
       <c r="G490" s="2"/>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
@@ -5805,7 +5820,7 @@
       <c r="F491" s="3"/>
       <c r="G491" s="2"/>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
@@ -5814,7 +5829,7 @@
       <c r="F492" s="3"/>
       <c r="G492" s="2"/>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
@@ -5823,7 +5838,7 @@
       <c r="F493" s="3"/>
       <c r="G493" s="2"/>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
@@ -5832,7 +5847,7 @@
       <c r="F494" s="3"/>
       <c r="G494" s="2"/>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
@@ -5841,7 +5856,7 @@
       <c r="F495" s="3"/>
       <c r="G495" s="2"/>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
@@ -5850,7 +5865,7 @@
       <c r="F496" s="3"/>
       <c r="G496" s="2"/>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
@@ -5859,7 +5874,7 @@
       <c r="F497" s="3"/>
       <c r="G497" s="2"/>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
@@ -5868,7 +5883,7 @@
       <c r="F498" s="3"/>
       <c r="G498" s="2"/>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A499" s="2"/>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
